--- a/ArticleManage/main_working_folder/output_folders/Data 69 Comparison of the Dubinin–Radushkevich/Data69_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 69 Comparison of the Dubinin–Radushkevich/Data69_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="D3055011" sheetId="1" r:id="rId1"/>
-    <sheet name="D3065011" sheetId="2" r:id="rId4"/>
-    <sheet name="D3065013" sheetId="3" r:id="rId5"/>
-    <sheet name="D9065011" sheetId="4" r:id="rId6"/>
-    <sheet name="D9065013" sheetId="5" r:id="rId7"/>
-    <sheet name="D9075013" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 D3055011  0-1-0-40 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 D3065011  0-1-0-40 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 D3065013  0-1-0-40 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 D9065011  0-1-0-40 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 D9065013  0-1-0-40 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 D9075013  0-1-0-40 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki D3055011</a:t>
+              <a:t>Izoterma adsorpcji probki D3055011 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>D3055011!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 D3055011  0-1-0-40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>D3055011!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 D3055011  0-1-0-40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki D3065011</a:t>
+              <a:t>Izoterma adsorpcji probki D3065011 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>D3065011!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 D3065011  0-1-0-40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>D3065011!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 D3065011  0-1-0-40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki D3065013</a:t>
+              <a:t>Izoterma adsorpcji probki D3065013 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>D3065013!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 D3065013  0-1-0-40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>D3065013!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 D3065013  0-1-0-40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki D9065011</a:t>
+              <a:t>Izoterma adsorpcji probki D9065011 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>D9065011!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 D9065011  0-1-0-40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>D9065011!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 D9065011  0-1-0-40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki D9065013</a:t>
+              <a:t>Izoterma adsorpcji probki D9065013 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>D9065013!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 D9065013  0-1-0-40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>D9065013!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 D9065013  0-1-0-40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki D9075013</a:t>
+              <a:t>Izoterma adsorpcji probki D9075013 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>D9075013!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 D9075013  0-1-0-40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>D9075013!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 D9075013  0-1-0-40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 69 Comparison of the Dubinin–Radushkevich/Data69_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 69 Comparison of the Dubinin–Radushkevich/Data69_all_graphs_excel.xlsx
@@ -5841,7 +5841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5862,127 +5862,127 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9762</v>
       </c>
       <c r="B3" s="0">
-        <v>4.2065</v>
+        <v>6.0262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9284</v>
       </c>
       <c r="B4" s="0">
-        <v>4.2974</v>
+        <v>5.5257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.8965</v>
       </c>
       <c r="B5" s="0">
-        <v>4.3788</v>
+        <v>5.3747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.8398</v>
       </c>
       <c r="B6" s="0">
-        <v>4.445</v>
+        <v>5.2722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.794</v>
       </c>
       <c r="B7" s="0">
-        <v>4.4961</v>
+        <v>5.1703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.7451</v>
       </c>
       <c r="B8" s="0">
-        <v>4.5412</v>
+        <v>5.2177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.6953</v>
       </c>
       <c r="B9" s="0">
-        <v>4.5852</v>
+        <v>5.2152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.6495</v>
       </c>
       <c r="B10" s="0">
-        <v>4.6332</v>
+        <v>5.1133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.6177</v>
       </c>
       <c r="B11" s="0">
-        <v>4.6856</v>
+        <v>5.0619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.5689</v>
       </c>
       <c r="B12" s="0">
-        <v>4.7361</v>
+        <v>5.1093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.5071</v>
       </c>
       <c r="B13" s="0">
-        <v>4.7818</v>
+        <v>5.0564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.4941</v>
       </c>
       <c r="B14" s="0">
-        <v>4.8524</v>
+        <v>5.0557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.4852</v>
       </c>
       <c r="B15" s="0">
-        <v>4.8923</v>
+        <v>5.0055</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.4673</v>
       </c>
       <c r="B16" s="0">
-        <v>4.9648</v>
+        <v>5.0046</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.4543</v>
       </c>
       <c r="B17" s="0">
-        <v>4.986</v>
+        <v>4.9043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.4384</v>
       </c>
       <c r="B18" s="0">
         <v>5.0032</v>
@@ -5990,149 +5990,189 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.4224</v>
       </c>
       <c r="B19" s="0">
-        <v>5.0179</v>
+        <v>4.9525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.4025</v>
       </c>
       <c r="B20" s="0">
-        <v>5.0309</v>
+        <v>4.9017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.3846</v>
       </c>
       <c r="B21" s="0">
-        <v>5.0542</v>
+        <v>4.9009</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.3706</v>
       </c>
       <c r="B22" s="0">
-        <v>5.098</v>
+        <v>4.9002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.3517</v>
       </c>
       <c r="B23" s="0">
-        <v>5.1502</v>
+        <v>4.8494</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.3358</v>
       </c>
       <c r="B24" s="0">
-        <v>5.2025</v>
+        <v>4.8486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.54</v>
+        <v>0.3169</v>
       </c>
       <c r="B25" s="0">
-        <v>5.2051</v>
+        <v>4.8477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.56</v>
+        <v>0.3019</v>
       </c>
       <c r="B26" s="0">
-        <v>5.1947</v>
+        <v>4.8469</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6</v>
+        <v>0.286</v>
       </c>
       <c r="B27" s="0">
-        <v>5.1955</v>
+        <v>4.8461</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.66</v>
+        <v>0.2671</v>
       </c>
       <c r="B28" s="0">
-        <v>5.2148</v>
+        <v>4.8452</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7</v>
+        <v>0.2501</v>
       </c>
       <c r="B29" s="0">
-        <v>5.2101</v>
+        <v>4.7945</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.74</v>
+        <v>0.2282</v>
       </c>
       <c r="B30" s="0">
-        <v>5.2164</v>
+        <v>4.7934</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8</v>
+        <v>0.2143</v>
       </c>
       <c r="B31" s="0">
-        <v>5.2164</v>
+        <v>4.7927</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.84</v>
+        <v>0.1943</v>
       </c>
       <c r="B32" s="0">
-        <v>5.2907</v>
+        <v>4.7419</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9762</v>
+        <v>0.1774</v>
       </c>
       <c r="B33" s="0">
-        <v>6.076</v>
+        <v>4.6913</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9284</v>
+        <v>0.1575</v>
       </c>
       <c r="B34" s="0">
-        <v>5.5257</v>
+        <v>4.6405</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8956</v>
+        <v>0.1396</v>
       </c>
       <c r="B35" s="0">
-        <v>5.3248</v>
+        <v>4.6894</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6177</v>
+        <v>0.1186</v>
       </c>
       <c r="B36" s="0">
-        <v>5.0619</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>4.4891</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1007</v>
+      </c>
+      <c r="B37" s="0">
+        <v>4.4882</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0828</v>
+      </c>
+      <c r="B38" s="0">
+        <v>4.4375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0619</v>
+      </c>
+      <c r="B39" s="0">
+        <v>4.3368</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0429</v>
+      </c>
+      <c r="B40" s="0">
+        <v>4.2363</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.024</v>
+      </c>
+      <c r="B41" s="0">
+        <v>4.1357</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6141,7 +6181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6162,397 +6202,349 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9903</v>
       </c>
       <c r="B3" s="0">
-        <v>6.4748</v>
+        <v>9.1153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9674</v>
       </c>
       <c r="B4" s="0">
-        <v>6.8293</v>
+        <v>8.8153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9395</v>
       </c>
       <c r="B5" s="0">
-        <v>7.0417</v>
+        <v>8.6147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9126</v>
       </c>
       <c r="B6" s="0">
-        <v>7.2103</v>
+        <v>8.5635</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8857</v>
       </c>
       <c r="B7" s="0">
-        <v>7.295</v>
+        <v>8.4127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.8538</v>
       </c>
       <c r="B8" s="0">
-        <v>7.3611</v>
+        <v>8.4111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.8229</v>
       </c>
       <c r="B9" s="0">
-        <v>7.4664</v>
+        <v>8.4096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.796</v>
       </c>
       <c r="B10" s="0">
-        <v>7.5764</v>
+        <v>8.3585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.7671</v>
       </c>
       <c r="B11" s="0">
-        <v>7.6523</v>
+        <v>8.3072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.7482</v>
       </c>
       <c r="B12" s="0">
-        <v>7.6981</v>
+        <v>8.2564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.7173</v>
       </c>
       <c r="B13" s="0">
-        <v>7.7269</v>
+        <v>8.2549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.6885</v>
       </c>
       <c r="B14" s="0">
-        <v>7.7563</v>
+        <v>8.2037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.6616</v>
       </c>
       <c r="B15" s="0">
-        <v>7.8009</v>
+        <v>8.2023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.6406</v>
       </c>
       <c r="B16" s="0">
-        <v>7.861</v>
+        <v>8.2013</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.6078</v>
       </c>
       <c r="B17" s="0">
-        <v>7.9271</v>
+        <v>8.2495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.5869</v>
       </c>
       <c r="B18" s="0">
-        <v>7.9664</v>
+        <v>8.099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.561</v>
       </c>
       <c r="B19" s="0">
-        <v>7.9697</v>
+        <v>8.1475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5371</v>
       </c>
       <c r="B20" s="0">
-        <v>7.9948</v>
+        <v>8.0965</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.5112</v>
       </c>
       <c r="B21" s="0">
-        <v>8.0785</v>
+        <v>8.0952</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.4873</v>
       </c>
       <c r="B22" s="0">
-        <v>8.1689</v>
+        <v>8.094</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.4554</v>
       </c>
       <c r="B23" s="0">
-        <v>8.2093</v>
+        <v>8.0924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.4345</v>
       </c>
       <c r="B24" s="0">
-        <v>8.1792</v>
+        <v>8.0416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.4036</v>
       </c>
       <c r="B25" s="0">
-        <v>8.098</v>
+        <v>7.9902</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.3797</v>
       </c>
       <c r="B26" s="0">
-        <v>8.0287</v>
+        <v>7.989</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.3568</v>
       </c>
       <c r="B27" s="0">
-        <v>8.0227</v>
+        <v>7.9879</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.3289</v>
       </c>
       <c r="B28" s="0">
-        <v>8.0634</v>
+        <v>7.9865</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.306</v>
       </c>
       <c r="B29" s="0">
-        <v>8.1152</v>
+        <v>7.9355</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.2801</v>
       </c>
       <c r="B30" s="0">
-        <v>8.1652</v>
+        <v>7.8346</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.2582</v>
       </c>
       <c r="B31" s="0">
-        <v>8.2113</v>
+        <v>7.8833</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.2333</v>
       </c>
       <c r="B32" s="0">
-        <v>8.2516</v>
+        <v>7.7825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.2084</v>
       </c>
       <c r="B33" s="0">
-        <v>8.2895</v>
+        <v>7.7812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.1785</v>
       </c>
       <c r="B34" s="0">
-        <v>8.3199</v>
+        <v>7.6303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.1526</v>
       </c>
       <c r="B35" s="0">
-        <v>8.3345</v>
+        <v>7.5294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.1287</v>
       </c>
       <c r="B36" s="0">
-        <v>8.3378</v>
+        <v>7.5282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.0998</v>
       </c>
       <c r="B37" s="0">
-        <v>8.3398</v>
+        <v>7.3773</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.0749</v>
       </c>
       <c r="B38" s="0">
-        <v>8.3542</v>
+        <v>7.1768</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.82</v>
+        <v>0.0619</v>
       </c>
       <c r="B39" s="0">
-        <v>8.3864</v>
+        <v>7.1264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.84</v>
+        <v>0.052</v>
       </c>
       <c r="B40" s="0">
-        <v>8.4199</v>
+        <v>7.0262</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.88</v>
+        <v>0.041</v>
       </c>
       <c r="B41" s="0">
-        <v>8.4936</v>
+        <v>6.8763</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9</v>
+        <v>0.033</v>
       </c>
       <c r="B42" s="0">
-        <v>8.5298</v>
+        <v>6.7762</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.94</v>
+        <v>0.0231</v>
       </c>
       <c r="B43" s="0">
-        <v>8.7269</v>
+        <v>6.6761</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9883</v>
+        <v>0.0141</v>
       </c>
       <c r="B44" s="0">
-        <v>9.1152</v>
+        <v>6.4266</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.9664</v>
+        <v>0.0071</v>
       </c>
       <c r="B45" s="0">
-        <v>8.7156</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9116</v>
-      </c>
-      <c r="B46" s="0">
-        <v>8.5137</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8548</v>
-      </c>
-      <c r="B47" s="0">
-        <v>8.4112</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.797</v>
-      </c>
-      <c r="B48" s="0">
-        <v>8.3585</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.7482</v>
-      </c>
-      <c r="B49" s="0">
-        <v>8.2564</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.7681</v>
-      </c>
-      <c r="B50" s="0">
-        <v>8.3073</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.7173</v>
-      </c>
-      <c r="B51" s="0">
-        <v>8.3047</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>6.1772</v>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6561,7 +6553,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6582,477 +6574,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0034</v>
       </c>
       <c r="B3" s="0">
-        <v>23.7443</v>
+        <v>15.2928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0013</v>
       </c>
       <c r="B4" s="0">
-        <v>25.0318</v>
+        <v>14.1968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0013</v>
       </c>
       <c r="B5" s="0">
-        <v>25.7637</v>
+        <v>13.1009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0013</v>
       </c>
       <c r="B6" s="0">
-        <v>26.6893</v>
+        <v>12.0549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0023</v>
       </c>
       <c r="B7" s="0">
-        <v>27.6188</v>
+        <v>11.1085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0074</v>
       </c>
       <c r="B8" s="0">
-        <v>28.3744</v>
+        <v>16.3889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0264</v>
       </c>
       <c r="B9" s="0">
-        <v>29.0545</v>
+        <v>19.7772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0404</v>
       </c>
       <c r="B10" s="0">
-        <v>29.7022</v>
+        <v>21.2722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.0543</v>
       </c>
       <c r="B11" s="0">
-        <v>30.2935</v>
+        <v>22.2692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.0643</v>
       </c>
       <c r="B12" s="0">
-        <v>30.8163</v>
+        <v>22.718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.0833</v>
       </c>
       <c r="B13" s="0">
-        <v>31.2502</v>
+        <v>24.0141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.0893</v>
       </c>
       <c r="B14" s="0">
-        <v>31.6668</v>
+        <v>24.3133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.0972</v>
       </c>
       <c r="B15" s="0">
-        <v>32.0617</v>
+        <v>24.5628</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.1162</v>
       </c>
       <c r="B16" s="0">
-        <v>32.4185</v>
+        <v>25.6596</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.1281</v>
       </c>
       <c r="B17" s="0">
-        <v>32.742</v>
+        <v>26.2081</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.1511</v>
       </c>
       <c r="B18" s="0">
-        <v>33.0021</v>
+        <v>27.1557</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.175</v>
       </c>
       <c r="B19" s="0">
-        <v>33.1915</v>
+        <v>28.1532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.2009</v>
       </c>
       <c r="B20" s="0">
-        <v>33.343</v>
+        <v>28.9515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.2328</v>
       </c>
       <c r="B21" s="0">
-        <v>33.4887</v>
+        <v>30.049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.2538</v>
       </c>
       <c r="B22" s="0">
-        <v>33.6809</v>
+        <v>30.6976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.2976</v>
       </c>
       <c r="B23" s="0">
-        <v>33.8718</v>
+        <v>31.5964</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.4052</v>
       </c>
       <c r="B24" s="0">
-        <v>34.0898</v>
+        <v>33.146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.4172</v>
       </c>
       <c r="B25" s="0">
-        <v>34.2303</v>
+        <v>33.296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.4939</v>
       </c>
       <c r="B26" s="0">
-        <v>34.4562</v>
+        <v>33.8976</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.5128</v>
       </c>
       <c r="B27" s="0">
-        <v>34.6041</v>
+        <v>34.0978</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.5566</v>
       </c>
       <c r="B28" s="0">
-        <v>34.7231</v>
+        <v>34.349</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.6294</v>
       </c>
       <c r="B29" s="0">
-        <v>34.8266</v>
+        <v>34.8508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.6702</v>
       </c>
       <c r="B30" s="0">
-        <v>34.9471</v>
+        <v>35.0521</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.727</v>
       </c>
       <c r="B31" s="0">
-        <v>35.0563</v>
+        <v>35.4534</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.7469</v>
       </c>
       <c r="B32" s="0">
-        <v>35.1818</v>
+        <v>35.6536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.8216</v>
       </c>
       <c r="B33" s="0">
-        <v>35.2997</v>
+        <v>36.1555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.8585</v>
       </c>
       <c r="B34" s="0">
-        <v>35.3781</v>
+        <v>36.3566</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.9312</v>
       </c>
       <c r="B35" s="0">
-        <v>35.4259</v>
+        <v>36.8583</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.9481</v>
       </c>
       <c r="B36" s="0">
-        <v>35.4711</v>
+        <v>36.9588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.9691</v>
       </c>
       <c r="B37" s="0">
-        <v>35.6162</v>
+        <v>37.2089</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.996</v>
       </c>
       <c r="B38" s="0">
-        <v>35.7829</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>35.9526</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>36.1416</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>36.2832</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>36.4389</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>36.5645</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>36.657</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>36.7822</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>37.0015</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0643</v>
-      </c>
-      <c r="B47" s="0">
-        <v>22.8176</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0553</v>
-      </c>
-      <c r="B48" s="0">
-        <v>22.1696</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0434</v>
-      </c>
-      <c r="B49" s="0">
-        <v>21.4218</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0344</v>
-      </c>
-      <c r="B50" s="0">
-        <v>20.6244</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0254</v>
-      </c>
-      <c r="B51" s="0">
-        <v>19.7771</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0194</v>
-      </c>
-      <c r="B52" s="0">
-        <v>18.9798</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0124</v>
-      </c>
-      <c r="B53" s="0">
-        <v>17.9334</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0074</v>
-      </c>
-      <c r="B54" s="0">
-        <v>16.3391</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0034</v>
-      </c>
-      <c r="B55" s="0">
-        <v>15.2928</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0013</v>
-      </c>
-      <c r="B56" s="0">
-        <v>14.1968</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0013</v>
-      </c>
-      <c r="B57" s="0">
-        <v>13.1009</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0013</v>
-      </c>
-      <c r="B58" s="0">
-        <v>12.0549</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0023</v>
-      </c>
-      <c r="B59" s="0">
-        <v>11.1085</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.9701</v>
-      </c>
-      <c r="B60" s="0">
-        <v>37.209</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.996</v>
-      </c>
-      <c r="B61" s="0">
-        <v>37.559</v>
-      </c>
-    </row>
-    <row r="62"/>
+        <v>37.5091</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7061,7 +6869,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7082,389 +6890,173 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9913</v>
       </c>
       <c r="B3" s="0">
-        <v>6.5651</v>
+        <v>11.1577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9654</v>
       </c>
       <c r="B4" s="0">
-        <v>6.86</v>
+        <v>10.6583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9355</v>
       </c>
       <c r="B5" s="0">
-        <v>7.069</v>
+        <v>10.5572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.9196</v>
       </c>
       <c r="B6" s="0">
-        <v>7.2948</v>
+        <v>10.407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.8608</v>
       </c>
       <c r="B7" s="0">
-        <v>7.5106</v>
+        <v>10.2048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.8279</v>
       </c>
       <c r="B8" s="0">
-        <v>7.6959</v>
+        <v>10.1035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.7592</v>
       </c>
       <c r="B9" s="0">
-        <v>7.8518</v>
+        <v>9.9506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.7433</v>
       </c>
       <c r="B10" s="0">
-        <v>7.983</v>
+        <v>9.8502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.6666</v>
       </c>
       <c r="B11" s="0">
-        <v>8.0985</v>
+        <v>9.7966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.6337</v>
       </c>
       <c r="B12" s="0">
-        <v>8.2012</v>
+        <v>9.6455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.552</v>
       </c>
       <c r="B13" s="0">
-        <v>8.3</v>
+        <v>9.492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5092</v>
       </c>
       <c r="B14" s="0">
-        <v>8.3981</v>
+        <v>9.3902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.4953</v>
       </c>
       <c r="B15" s="0">
-        <v>8.4995</v>
+        <v>9.3397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4195</v>
       </c>
       <c r="B16" s="0">
-        <v>8.6037</v>
+        <v>9.0869</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.4096</v>
       </c>
       <c r="B17" s="0">
-        <v>8.7094</v>
+        <v>9.0864</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.307</v>
       </c>
       <c r="B18" s="0">
-        <v>8.8069</v>
+        <v>8.7326</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.2691</v>
       </c>
       <c r="B19" s="0">
-        <v>8.8876</v>
+        <v>8.5315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.1994</v>
       </c>
       <c r="B20" s="0">
-        <v>8.9485</v>
+        <v>8.1793</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.1845</v>
       </c>
       <c r="B21" s="0">
-        <v>9.0008</v>
+        <v>8.0789</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.1496</v>
       </c>
       <c r="B22" s="0">
-        <v>9.0581</v>
+        <v>7.9278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.1307</v>
       </c>
       <c r="B23" s="0">
-        <v>9.1313</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B24" s="0">
-        <v>9.2176</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B25" s="0">
-        <v>9.3086</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>9.3923</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>9.4707</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>9.5353</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>9.5863</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>9.6132</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>9.625</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>9.6326</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>9.6484</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>9.6791</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>9.7183</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>9.7638</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>9.8097</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>9.8588</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>9.9058</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>9.9564</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>10.0181</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>10.0826</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>10.1396</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>10.1819</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>10.2277</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>10.2903</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>10.4053</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>10.5163</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9644</v>
-      </c>
-      <c r="B49" s="0">
-        <v>10.6084</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9893</v>
-      </c>
-      <c r="B50" s="0">
-        <v>11.1576</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>7.8272</v>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7473,7 +7065,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7494,421 +7086,357 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0032</v>
       </c>
       <c r="B3" s="0">
-        <v>16.7491</v>
+        <v>9.1658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0173</v>
       </c>
       <c r="B4" s="0">
-        <v>17.5256</v>
+        <v>13.6995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0302</v>
       </c>
       <c r="B5" s="0">
-        <v>18.1028</v>
+        <v>14.547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0382</v>
       </c>
       <c r="B6" s="0">
-        <v>18.6361</v>
+        <v>15.0953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0442</v>
       </c>
       <c r="B7" s="0">
-        <v>19.1248</v>
+        <v>15.3945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0552</v>
       </c>
       <c r="B8" s="0">
-        <v>19.5358</v>
+        <v>15.943</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0651</v>
       </c>
       <c r="B9" s="0">
-        <v>19.889</v>
+        <v>16.3918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0781</v>
       </c>
       <c r="B10" s="0">
-        <v>20.1993</v>
+        <v>16.8906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.0861</v>
       </c>
       <c r="B11" s="0">
-        <v>20.4965</v>
+        <v>17.0902</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.0941</v>
       </c>
       <c r="B12" s="0">
-        <v>20.7808</v>
+        <v>17.3397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.102</v>
       </c>
       <c r="B13" s="0">
-        <v>21.0376</v>
+        <v>17.5393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.108</v>
       </c>
       <c r="B14" s="0">
-        <v>21.2844</v>
+        <v>17.8883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.117</v>
       </c>
       <c r="B15" s="0">
-        <v>21.5348</v>
+        <v>18.088</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.125</v>
       </c>
       <c r="B16" s="0">
-        <v>21.7448</v>
+        <v>18.2877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.1329</v>
       </c>
       <c r="B17" s="0">
-        <v>21.9264</v>
+        <v>18.4375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.1419</v>
       </c>
       <c r="B18" s="0">
-        <v>22.0754</v>
+        <v>18.7368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.1509</v>
       </c>
       <c r="B19" s="0">
-        <v>22.179</v>
+        <v>18.9365</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.1559</v>
       </c>
       <c r="B20" s="0">
-        <v>22.2736</v>
+        <v>19.136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.1638</v>
       </c>
       <c r="B21" s="0">
-        <v>22.3623</v>
+        <v>19.2859</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.1728</v>
       </c>
       <c r="B22" s="0">
-        <v>22.4173</v>
+        <v>19.4856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.1828</v>
       </c>
       <c r="B23" s="0">
-        <v>22.462</v>
+        <v>19.6355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.1897</v>
       </c>
       <c r="B24" s="0">
-        <v>22.5383</v>
+        <v>19.7853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.1977</v>
       </c>
       <c r="B25" s="0">
-        <v>22.6389</v>
+        <v>19.8853</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.2117</v>
       </c>
       <c r="B26" s="0">
-        <v>22.7224</v>
+        <v>20.1351</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.2555</v>
       </c>
       <c r="B27" s="0">
-        <v>22.7976</v>
+        <v>20.8346</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.2834</v>
       </c>
       <c r="B28" s="0">
-        <v>22.8894</v>
+        <v>21.2844</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.3173</v>
       </c>
       <c r="B29" s="0">
-        <v>23.0083</v>
+        <v>21.6347</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.3621</v>
       </c>
       <c r="B30" s="0">
-        <v>23.1286</v>
+        <v>22.0853</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.402</v>
       </c>
       <c r="B31" s="0">
-        <v>23.2156</v>
+        <v>22.3861</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.4428</v>
       </c>
       <c r="B32" s="0">
-        <v>23.218</v>
+        <v>22.438</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.4796</v>
       </c>
       <c r="B33" s="0">
-        <v>23.158</v>
+        <v>22.4398</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.5205</v>
       </c>
       <c r="B34" s="0">
-        <v>23.1069</v>
+        <v>22.6909</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.5603</v>
       </c>
       <c r="B35" s="0">
-        <v>23.0825</v>
+        <v>22.8424</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.5892</v>
       </c>
       <c r="B36" s="0">
-        <v>23.0925</v>
+        <v>22.7442</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.6291</v>
       </c>
       <c r="B37" s="0">
-        <v>23.1269</v>
+        <v>22.9454</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.6709</v>
       </c>
       <c r="B38" s="0">
-        <v>23.1747</v>
+        <v>22.9973</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8</v>
+        <v>0.6998</v>
       </c>
       <c r="B39" s="0">
-        <v>23.2277</v>
+        <v>23.0984</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.82</v>
+        <v>0.7436</v>
       </c>
       <c r="B40" s="0">
-        <v>23.2858</v>
+        <v>23.1504</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.84</v>
+        <v>0.7825</v>
       </c>
       <c r="B41" s="0">
-        <v>23.345</v>
+        <v>23.3017</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.86</v>
+        <v>0.8273</v>
       </c>
       <c r="B42" s="0">
-        <v>23.4091</v>
+        <v>23.4036</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.88</v>
+        <v>0.8562</v>
       </c>
       <c r="B43" s="0">
-        <v>23.5024</v>
+        <v>23.405</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9</v>
+        <v>0.904</v>
       </c>
       <c r="B44" s="0">
-        <v>23.6676</v>
+        <v>23.6565</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.9458</v>
+        <v>0.9468</v>
       </c>
       <c r="B45" s="0">
-        <v>24.2065</v>
+        <v>24.1568</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9658</v>
+        <v>0.9678</v>
       </c>
       <c r="B46" s="0">
-        <v>27.2959</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0642</v>
-      </c>
-      <c r="B47" s="0">
-        <v>16.3917</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0532</v>
-      </c>
-      <c r="B48" s="0">
-        <v>15.7934</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0402</v>
-      </c>
-      <c r="B49" s="0">
-        <v>15.195</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0302</v>
-      </c>
-      <c r="B50" s="0">
-        <v>14.547</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0163</v>
-      </c>
-      <c r="B51" s="0">
-        <v>13.6496</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0073</v>
-      </c>
-      <c r="B52" s="0">
-        <v>12.354</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0022</v>
-      </c>
-      <c r="B53" s="0">
-        <v>9.0661</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0043</v>
-      </c>
-      <c r="B54" s="0">
-        <v>10.9591</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>27.296</v>
+      </c>
+    </row>
+    <row r="47"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7917,7 +7445,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7938,381 +7466,341 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0241</v>
       </c>
       <c r="B3" s="0">
-        <v>8.658</v>
+        <v>8.2204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0351</v>
       </c>
       <c r="B4" s="0">
-        <v>9.0187</v>
+        <v>8.6194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0411</v>
       </c>
       <c r="B5" s="0">
-        <v>9.3842</v>
+        <v>8.9684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.049</v>
       </c>
       <c r="B6" s="0">
-        <v>9.8232</v>
+        <v>9.1681</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.059</v>
       </c>
       <c r="B7" s="0">
-        <v>10.2624</v>
+        <v>9.3678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.068</v>
       </c>
       <c r="B8" s="0">
-        <v>10.679</v>
+        <v>9.5675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.0749</v>
       </c>
       <c r="B9" s="0">
-        <v>11.0745</v>
+        <v>9.7671</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.0839</v>
       </c>
       <c r="B10" s="0">
-        <v>11.4387</v>
+        <v>9.9668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.0949</v>
       </c>
       <c r="B11" s="0">
-        <v>11.7931</v>
+        <v>10.1666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1019</v>
       </c>
       <c r="B12" s="0">
-        <v>12.1036</v>
+        <v>10.3662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.1108</v>
       </c>
       <c r="B13" s="0">
-        <v>12.4173</v>
+        <v>10.6157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.1198</v>
       </c>
       <c r="B14" s="0">
-        <v>12.7441</v>
+        <v>10.7158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.1298</v>
       </c>
       <c r="B15" s="0">
-        <v>13.0797</v>
+        <v>11.0152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.1377</v>
       </c>
       <c r="B16" s="0">
-        <v>13.4377</v>
+        <v>11.0654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.1477</v>
       </c>
       <c r="B17" s="0">
-        <v>13.7841</v>
+        <v>11.2651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.1557</v>
       </c>
       <c r="B18" s="0">
-        <v>14.0694</v>
+        <v>11.415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.1646</v>
       </c>
       <c r="B19" s="0">
-        <v>14.3277</v>
+        <v>11.5151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.1726</v>
       </c>
       <c r="B20" s="0">
-        <v>14.5707</v>
+        <v>11.6151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.1816</v>
       </c>
       <c r="B21" s="0">
-        <v>14.8253</v>
+        <v>11.8148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.1905</v>
       </c>
       <c r="B22" s="0">
-        <v>15.0955</v>
+        <v>12.0145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.1975</v>
       </c>
       <c r="B23" s="0">
-        <v>15.3795</v>
+        <v>12.1643</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.2105</v>
       </c>
       <c r="B24" s="0">
-        <v>15.593</v>
+        <v>12.3642</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.2922</v>
       </c>
       <c r="B25" s="0">
-        <v>15.7429</v>
+        <v>13.6136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.331</v>
       </c>
       <c r="B26" s="0">
-        <v>15.8552</v>
+        <v>14.2631</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.3679</v>
       </c>
       <c r="B27" s="0">
-        <v>15.9572</v>
+        <v>14.6634</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.4067</v>
       </c>
       <c r="B28" s="0">
-        <v>16.0783</v>
+        <v>15.0638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.4476</v>
       </c>
       <c r="B29" s="0">
-        <v>16.2266</v>
+        <v>15.5142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.4855</v>
       </c>
       <c r="B30" s="0">
-        <v>16.3686</v>
+        <v>15.815</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.5203</v>
       </c>
       <c r="B31" s="0">
-        <v>16.4797</v>
+        <v>16.1156</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.5572</v>
       </c>
       <c r="B32" s="0">
-        <v>16.5467</v>
+        <v>16.3665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.597</v>
       </c>
       <c r="B33" s="0">
-        <v>16.5841</v>
+        <v>16.5677</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.6319</v>
       </c>
       <c r="B34" s="0">
-        <v>16.6161</v>
+        <v>16.6691</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.6697</v>
       </c>
       <c r="B35" s="0">
-        <v>16.6566</v>
+        <v>16.8204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.7086</v>
       </c>
       <c r="B36" s="0">
-        <v>16.7099</v>
+        <v>16.8722</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.7415</v>
       </c>
       <c r="B37" s="0">
-        <v>16.7867</v>
+        <v>16.9236</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.7793</v>
       </c>
       <c r="B38" s="0">
-        <v>16.8704</v>
+        <v>17.0749</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.8182</v>
       </c>
       <c r="B39" s="0">
-        <v>16.9352</v>
+        <v>17.0769</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.855</v>
       </c>
       <c r="B40" s="0">
-        <v>16.9862</v>
+        <v>17.1285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.8879</v>
       </c>
       <c r="B41" s="0">
-        <v>17.0293</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8</v>
+        <v>0.9247</v>
       </c>
       <c r="B42" s="0">
-        <v>17.0701</v>
+        <v>17.3811</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.82</v>
+        <v>0.9596</v>
       </c>
       <c r="B43" s="0">
-        <v>17.1075</v>
+        <v>17.5322</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.84</v>
+        <v>0.9825</v>
       </c>
       <c r="B44" s="0">
-        <v>17.1397</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9825</v>
-      </c>
-      <c r="B45" s="0">
-        <v>18.4798</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9616</v>
-      </c>
-      <c r="B46" s="0">
-        <v>17.6818</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9257</v>
-      </c>
-      <c r="B47" s="0">
-        <v>17.4309</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8889</v>
-      </c>
-      <c r="B48" s="0">
-        <v>17.2796</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.856</v>
-      </c>
-      <c r="B49" s="0">
-        <v>17.1286</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>18.5296</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 69 Comparison of the Dubinin–Radushkevich/Data69_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 69 Comparison of the Dubinin–Radushkevich/Data69_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 D3055011  0-1-0-40 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 D3065011  0-1-0-40 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 D3065013  0-1-0-40 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 D9065011  0-1-0-40 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 D9065013  0-1-0-40 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 D9075013  0-1-0-40 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 D3055011  0&amp;1&amp;0&amp;40 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 D3065011  0&amp;1&amp;0&amp;40 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 D3065013  0&amp;1&amp;0&amp;40 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 D9065011  0&amp;1&amp;0&amp;40 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 D9065013  0&amp;1&amp;0&amp;40 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 D9075013  0&amp;1&amp;0&amp;40 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 D3055011  0-1-0-40 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 D3055011  0&amp;1&amp;0&amp;40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 D3055011  0-1-0-40 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 D3055011  0&amp;1&amp;0&amp;40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 D3065011  0-1-0-40 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 D3065011  0&amp;1&amp;0&amp;40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 D3065011  0-1-0-40 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 D3065011  0&amp;1&amp;0&amp;40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 D3065013  0-1-0-40 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 D3065013  0&amp;1&amp;0&amp;40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 D3065013  0-1-0-40 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 D3065013  0&amp;1&amp;0&amp;40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 D9065011  0-1-0-40 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 D9065011  0&amp;1&amp;0&amp;40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 D9065011  0-1-0-40 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 D9065011  0&amp;1&amp;0&amp;40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 D9065013  0-1-0-40 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 D9065013  0&amp;1&amp;0&amp;40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 D9065013  0-1-0-40 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 D9065013  0&amp;1&amp;0&amp;40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 D9075013  0-1-0-40 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 D9075013  0&amp;1&amp;0&amp;40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 D9075013  0-1-0-40 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 D9075013  0&amp;1&amp;0&amp;40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
